--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_VoiceLine.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_VoiceLine.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="VoiceLine" sheetId="2" r:id="rId1"/>
+    <sheet name="Unique Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="704">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -1719,15 +1720,6 @@
     <t>10.28.6.16/32</t>
   </si>
   <si>
-    <t>C:\\Users\\SKathiresan-ADM\\Downloads</t>
-  </si>
-  <si>
-    <t>Devint52</t>
-  </si>
-  <si>
-    <t>EditInterface26</t>
-  </si>
-  <si>
     <t>url for the product</t>
   </si>
   <si>
@@ -1743,367 +1735,403 @@
     <t>ChangeOrder_existingOrderNumber</t>
   </si>
   <si>
-    <t>VLV3411</t>
-  </si>
-  <si>
-    <t>vlvdomain3411.com</t>
-  </si>
-  <si>
-    <t>vlvocn3411</t>
-  </si>
-  <si>
-    <t>testreference_vlv3411</t>
-  </si>
-  <si>
-    <t>vlvcontact3411</t>
-  </si>
-  <si>
-    <t>vlv3411@test.com</t>
-  </si>
-  <si>
-    <t>VLVOrder_3411</t>
-  </si>
-  <si>
-    <t>VLVRFI_3411</t>
-  </si>
-  <si>
-    <t>IPVLService_3411</t>
-  </si>
-  <si>
-    <t>VLVUser_3411</t>
-  </si>
-  <si>
-    <t>User_3411</t>
-  </si>
-  <si>
-    <t>VLVUser_3411@gmail.com</t>
-  </si>
-  <si>
-    <t>VLVUseredit3411</t>
-  </si>
-  <si>
-    <t>Useredit3411</t>
-  </si>
-  <si>
-    <t>VLVUseredit_3411@gmail.com</t>
-  </si>
-  <si>
-    <t>VLVOrderedit_3411</t>
-  </si>
-  <si>
-    <t>VLVRFIedit_3411</t>
-  </si>
-  <si>
-    <t>vlvedit3411@test.com</t>
-  </si>
-  <si>
-    <t>voice3411.vl.colt.net</t>
-  </si>
-  <si>
-    <t>voiceEdit3411.vl.colt.net</t>
-  </si>
-  <si>
-    <t>VLV3504</t>
-  </si>
-  <si>
-    <t>vlvdomain3504.com</t>
-  </si>
-  <si>
-    <t>vlvocn3504</t>
-  </si>
-  <si>
-    <t>testreference_vlv3504</t>
-  </si>
-  <si>
-    <t>vlvcontact3504</t>
-  </si>
-  <si>
-    <t>vlv3504@test.com</t>
-  </si>
-  <si>
-    <t>VLVOrder_3504</t>
-  </si>
-  <si>
-    <t>VLVRFI_3504</t>
-  </si>
-  <si>
-    <t>IPVLService_3504</t>
-  </si>
-  <si>
-    <t>VLVUser_3504</t>
-  </si>
-  <si>
-    <t>User_3504</t>
-  </si>
-  <si>
-    <t>VLVUser_3504@gmail.com</t>
-  </si>
-  <si>
-    <t>VLVUseredit3504</t>
-  </si>
-  <si>
-    <t>Useredit3504</t>
-  </si>
-  <si>
-    <t>VLVUseredit_3504@gmail.com</t>
-  </si>
-  <si>
-    <t>VLVOrderedit_3504</t>
-  </si>
-  <si>
-    <t>VLVRFIedit_3504</t>
-  </si>
-  <si>
-    <t>vlvedit3504@test.com</t>
-  </si>
-  <si>
-    <t>voice3504.vl.colt.net</t>
-  </si>
-  <si>
-    <t>voiceEdit3504.vl.colt.net</t>
-  </si>
-  <si>
-    <t>VLV3602</t>
-  </si>
-  <si>
-    <t>vlvdomain3602.com</t>
-  </si>
-  <si>
-    <t>vlvocn3602</t>
-  </si>
-  <si>
-    <t>testreference_vlv3602</t>
-  </si>
-  <si>
-    <t>vlvcontact3602</t>
-  </si>
-  <si>
-    <t>vlv3602@test.com</t>
-  </si>
-  <si>
-    <t>VLVOrder_3602</t>
-  </si>
-  <si>
-    <t>VLVRFI_3602</t>
-  </si>
-  <si>
-    <t>IPVLService_3602</t>
-  </si>
-  <si>
-    <t>VLVUser_3602</t>
-  </si>
-  <si>
-    <t>User_3602</t>
-  </si>
-  <si>
-    <t>VLVUser_3602@gmail.com</t>
-  </si>
-  <si>
-    <t>VLVUseredit3602</t>
-  </si>
-  <si>
-    <t>Useredit3602</t>
-  </si>
-  <si>
-    <t>VLVUseredit_3602@gmail.com</t>
-  </si>
-  <si>
-    <t>VLVOrderedit_3602</t>
-  </si>
-  <si>
-    <t>VLVRFIedit_3602</t>
-  </si>
-  <si>
-    <t>vlvedit3602@test.com</t>
-  </si>
-  <si>
-    <t>voice3602.vl.colt.net</t>
-  </si>
-  <si>
-    <t>voiceEdit3602.vl.colt.net</t>
-  </si>
-  <si>
-    <t>VLV3722</t>
-  </si>
-  <si>
-    <t>vlvdomain3722.com</t>
-  </si>
-  <si>
-    <t>vlvocn3722</t>
-  </si>
-  <si>
-    <t>testreference_vlv3722</t>
-  </si>
-  <si>
-    <t>vlvcontact3722</t>
-  </si>
-  <si>
-    <t>vlv3722@test.com</t>
-  </si>
-  <si>
-    <t>VLVOrder_3722</t>
-  </si>
-  <si>
-    <t>VLVRFI_3722</t>
-  </si>
-  <si>
-    <t>IPVLService_3722</t>
-  </si>
-  <si>
-    <t>VLVUser_3722</t>
-  </si>
-  <si>
-    <t>User_3722</t>
-  </si>
-  <si>
-    <t>VLVUser_3722@gmail.com</t>
-  </si>
-  <si>
-    <t>VLVUseredit3722</t>
-  </si>
-  <si>
-    <t>Useredit3722</t>
-  </si>
-  <si>
-    <t>VLVUseredit_3722@gmail.com</t>
-  </si>
-  <si>
-    <t>VLVOrderedit_3722</t>
-  </si>
-  <si>
-    <t>VLVRFIedit_3722</t>
-  </si>
-  <si>
-    <t>vlvedit3722@test.com</t>
-  </si>
-  <si>
-    <t>voice3722.vl.colt.net</t>
-  </si>
-  <si>
-    <t>voiceEdit3722.vl.colt.net</t>
-  </si>
-  <si>
-    <t>VLV3814</t>
-  </si>
-  <si>
-    <t>vlvdomain3814.com</t>
-  </si>
-  <si>
-    <t>vlvocn3814</t>
-  </si>
-  <si>
-    <t>testreference_vlv3814</t>
-  </si>
-  <si>
-    <t>vlvcontact3814</t>
-  </si>
-  <si>
-    <t>vlv3814@test.com</t>
-  </si>
-  <si>
-    <t>VLVOrder_3814</t>
-  </si>
-  <si>
-    <t>VLVRFI_3814</t>
-  </si>
-  <si>
-    <t>IPVLService_3814</t>
-  </si>
-  <si>
-    <t>VLVUser_3814</t>
-  </si>
-  <si>
-    <t>User_3814</t>
-  </si>
-  <si>
-    <t>VLVUser_3814@gmail.com</t>
-  </si>
-  <si>
-    <t>VLVUseredit3814</t>
-  </si>
-  <si>
-    <t>Useredit3814</t>
-  </si>
-  <si>
-    <t>VLVUseredit_3814@gmail.com</t>
-  </si>
-  <si>
-    <t>VLVOrderedit_3814</t>
-  </si>
-  <si>
-    <t>VLVRFIedit_3814</t>
-  </si>
-  <si>
-    <t>vlvedit3814@test.com</t>
-  </si>
-  <si>
-    <t>voice3814.vl.colt.net</t>
-  </si>
-  <si>
-    <t>voiceEdit3814.vl.colt.net</t>
-  </si>
-  <si>
-    <t>Ne_y2</t>
-  </si>
-  <si>
-    <t>Mo_x5</t>
-  </si>
-  <si>
-    <t>Sp_h1</t>
-  </si>
-  <si>
-    <t>Gd_c3</t>
-  </si>
-  <si>
-    <t>Fv_J9</t>
-  </si>
-  <si>
-    <t>255.232.248.255/27</t>
-  </si>
-  <si>
-    <t>255.232.249.255/27</t>
-  </si>
-  <si>
-    <t>255.232.224.255/27</t>
-  </si>
-  <si>
-    <t>255.232.226.255/27</t>
-  </si>
-  <si>
-    <t>255.232.227.255/27</t>
-  </si>
-  <si>
-    <t>15.32.45.52</t>
-  </si>
-  <si>
-    <t>15.27.35.25</t>
-  </si>
-  <si>
-    <t>15.36.28.47</t>
-  </si>
-  <si>
-    <t>15.42.14.32</t>
-  </si>
-  <si>
-    <t>15.53.25.63</t>
-  </si>
-  <si>
-    <t>17.45.39.52</t>
-  </si>
-  <si>
-    <t>17.45.58.42</t>
-  </si>
-  <si>
-    <t>17.38.49.26</t>
-  </si>
-  <si>
-    <t>17.35.13.62</t>
-  </si>
-  <si>
-    <t>17.34.63.76</t>
-  </si>
-  <si>
     <t>D:\APT_Phase1_Automation_Project_Deliverables\APTAutomationProject\src\TestDr3.csv</t>
+  </si>
+  <si>
+    <t>Columns for which unique data to be provided</t>
+  </si>
+  <si>
+    <t>VLV3819</t>
+  </si>
+  <si>
+    <t>vlvdomain3819.com</t>
+  </si>
+  <si>
+    <t>vlvocn3819</t>
+  </si>
+  <si>
+    <t>testreference_vlv3819</t>
+  </si>
+  <si>
+    <t>vlvcontact3819</t>
+  </si>
+  <si>
+    <t>vlv3819@test.com</t>
+  </si>
+  <si>
+    <t>VLVOrder_3819</t>
+  </si>
+  <si>
+    <t>VLVRFI_3819</t>
+  </si>
+  <si>
+    <t>IPVLService_3819</t>
+  </si>
+  <si>
+    <t>VLVUser_3819</t>
+  </si>
+  <si>
+    <t>User_3819</t>
+  </si>
+  <si>
+    <t>VLVUser_3819@gmail.com</t>
+  </si>
+  <si>
+    <t>VLVUseredit3819</t>
+  </si>
+  <si>
+    <t>Useredit3819</t>
+  </si>
+  <si>
+    <t>VLVUseredit_3819@gmail.com</t>
+  </si>
+  <si>
+    <t>VLVOrderedit_3819</t>
+  </si>
+  <si>
+    <t>VLVRFIedit_3819</t>
+  </si>
+  <si>
+    <t>vlvedit3819@test.com</t>
+  </si>
+  <si>
+    <t>Devint3819</t>
+  </si>
+  <si>
+    <t>voice3819.vl.colt.net</t>
+  </si>
+  <si>
+    <t>voiceEdit3819.vl.colt.net</t>
+  </si>
+  <si>
+    <t>EditInterface3819</t>
+  </si>
+  <si>
+    <t>C:\Users\SSUPRAJA-adm\Downloads</t>
+  </si>
+  <si>
+    <t>VLV3725</t>
+  </si>
+  <si>
+    <t>vlvdomain3725.com</t>
+  </si>
+  <si>
+    <t>vlvocn3725</t>
+  </si>
+  <si>
+    <t>testreference_vlv3725</t>
+  </si>
+  <si>
+    <t>vlvcontact3725</t>
+  </si>
+  <si>
+    <t>vlv3725@test.com</t>
+  </si>
+  <si>
+    <t>VLVOrder_3725</t>
+  </si>
+  <si>
+    <t>VLVRFI_3725</t>
+  </si>
+  <si>
+    <t>IPVLService_3725</t>
+  </si>
+  <si>
+    <t>VLVUser_3725</t>
+  </si>
+  <si>
+    <t>User_3725</t>
+  </si>
+  <si>
+    <t>VLVUser_3725@gmail.com</t>
+  </si>
+  <si>
+    <t>VLVUseredit3725</t>
+  </si>
+  <si>
+    <t>Useredit3725</t>
+  </si>
+  <si>
+    <t>VLVUseredit_3725@gmail.com</t>
+  </si>
+  <si>
+    <t>VLVOrderedit_3725</t>
+  </si>
+  <si>
+    <t>VLVRFIedit_3725</t>
+  </si>
+  <si>
+    <t>vlvedit3725@test.com</t>
+  </si>
+  <si>
+    <t>Devint3725</t>
+  </si>
+  <si>
+    <t>EditInterface3725</t>
+  </si>
+  <si>
+    <t>voice3725.vl.colt.net</t>
+  </si>
+  <si>
+    <t>voiceEdit3725.vl.colt.net</t>
+  </si>
+  <si>
+    <t>VLV3605</t>
+  </si>
+  <si>
+    <t>vlvdomain3605.com</t>
+  </si>
+  <si>
+    <t>vlvocn3605</t>
+  </si>
+  <si>
+    <t>testreference_vlv3605</t>
+  </si>
+  <si>
+    <t>vlvcontact3605</t>
+  </si>
+  <si>
+    <t>vlv3605@test.com</t>
+  </si>
+  <si>
+    <t>VLVOrder_3605</t>
+  </si>
+  <si>
+    <t>VLVRFI_3605</t>
+  </si>
+  <si>
+    <t>IPVLService_3605</t>
+  </si>
+  <si>
+    <t>VLVUser_3605</t>
+  </si>
+  <si>
+    <t>User_3605</t>
+  </si>
+  <si>
+    <t>VLVUser_3605@gmail.com</t>
+  </si>
+  <si>
+    <t>VLVUseredit3605</t>
+  </si>
+  <si>
+    <t>Useredit3605</t>
+  </si>
+  <si>
+    <t>VLVUseredit_3605@gmail.com</t>
+  </si>
+  <si>
+    <t>VLVOrderedit_3605</t>
+  </si>
+  <si>
+    <t>VLVRFIedit_3605</t>
+  </si>
+  <si>
+    <t>vlvedit3605@test.com</t>
+  </si>
+  <si>
+    <t>Devint3605</t>
+  </si>
+  <si>
+    <t>EditInterface3605</t>
+  </si>
+  <si>
+    <t>voice3605.vl.colt.net</t>
+  </si>
+  <si>
+    <t>voiceEdit3605.vl.colt.net</t>
+  </si>
+  <si>
+    <t>VLV3507</t>
+  </si>
+  <si>
+    <t>vlvdomain3507.com</t>
+  </si>
+  <si>
+    <t>vlvocn3507</t>
+  </si>
+  <si>
+    <t>testreference_vlv3507</t>
+  </si>
+  <si>
+    <t>vlvcontact3507</t>
+  </si>
+  <si>
+    <t>vlv3507@test.com</t>
+  </si>
+  <si>
+    <t>VLVOrder_3507</t>
+  </si>
+  <si>
+    <t>VLVRFI_3507</t>
+  </si>
+  <si>
+    <t>IPVLService_3507</t>
+  </si>
+  <si>
+    <t>VLVUser_3507</t>
+  </si>
+  <si>
+    <t>User_3507</t>
+  </si>
+  <si>
+    <t>VLVUser_3507@gmail.com</t>
+  </si>
+  <si>
+    <t>VLVUseredit3507</t>
+  </si>
+  <si>
+    <t>Useredit3507</t>
+  </si>
+  <si>
+    <t>VLVUseredit_3507@gmail.com</t>
+  </si>
+  <si>
+    <t>VLVOrderedit_3507</t>
+  </si>
+  <si>
+    <t>VLVRFIedit_3507</t>
+  </si>
+  <si>
+    <t>vlvedit3507@test.com</t>
+  </si>
+  <si>
+    <t>Devint3507</t>
+  </si>
+  <si>
+    <t>EditInterface3507</t>
+  </si>
+  <si>
+    <t>voice3507.vl.colt.net</t>
+  </si>
+  <si>
+    <t>voiceEdit3507.vl.colt.net</t>
+  </si>
+  <si>
+    <t>VLV3414</t>
+  </si>
+  <si>
+    <t>vlvdomain3414.com</t>
+  </si>
+  <si>
+    <t>vlvocn3414</t>
+  </si>
+  <si>
+    <t>testreference_vlv3414</t>
+  </si>
+  <si>
+    <t>vlvcontact3414</t>
+  </si>
+  <si>
+    <t>vlv3414@test.com</t>
+  </si>
+  <si>
+    <t>VLVOrder_3414</t>
+  </si>
+  <si>
+    <t>VLVRFI_3414</t>
+  </si>
+  <si>
+    <t>IPVLService_3414</t>
+  </si>
+  <si>
+    <t>VLVUser_3414</t>
+  </si>
+  <si>
+    <t>User_3414</t>
+  </si>
+  <si>
+    <t>VLVUser_3414@gmail.com</t>
+  </si>
+  <si>
+    <t>VLVUseredit3414</t>
+  </si>
+  <si>
+    <t>Useredit3414</t>
+  </si>
+  <si>
+    <t>VLVUseredit_3414@gmail.com</t>
+  </si>
+  <si>
+    <t>VLVOrderedit_3414</t>
+  </si>
+  <si>
+    <t>VLVRFIedit_3414</t>
+  </si>
+  <si>
+    <t>vlvedit3414@test.com</t>
+  </si>
+  <si>
+    <t>Devint3414</t>
+  </si>
+  <si>
+    <t>EditInterface3414</t>
+  </si>
+  <si>
+    <t>voice3414.vl.colt.net</t>
+  </si>
+  <si>
+    <t>voiceEdit3414.vl.colt.net</t>
+  </si>
+  <si>
+    <t>Ne_y5</t>
+  </si>
+  <si>
+    <t>Mo_x7</t>
+  </si>
+  <si>
+    <t>Sp_h4</t>
+  </si>
+  <si>
+    <t>Gd_c5</t>
+  </si>
+  <si>
+    <t>Fv_J14</t>
+  </si>
+  <si>
+    <t>255.234.250.255/27</t>
+  </si>
+  <si>
+    <t>255.234.251.255/27</t>
+  </si>
+  <si>
+    <t>255.234.230.255/27</t>
+  </si>
+  <si>
+    <t>255.234.231.255/27</t>
+  </si>
+  <si>
+    <t>255.234.232.255/27</t>
+  </si>
+  <si>
+    <t>15.32.45.55</t>
+  </si>
+  <si>
+    <t>15.27.35.27</t>
+  </si>
+  <si>
+    <t>15.36.28.50</t>
+  </si>
+  <si>
+    <t>15.42.14.36</t>
+  </si>
+  <si>
+    <t>15.53.25.67</t>
+  </si>
+  <si>
+    <t>17.45.39.55</t>
+  </si>
+  <si>
+    <t>17.45.58.45</t>
+  </si>
+  <si>
+    <t>17.38.49.28</t>
+  </si>
+  <si>
+    <t>17.35.13.65</t>
+  </si>
+  <si>
+    <t>17.34.63.79</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2193,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2175,6 +2203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2209,7 +2243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2229,7 +2263,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2270,6 +2303,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2553,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:OV6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2793,10 +2837,12 @@
     <col min="311" max="311" width="9.140625" style="1" collapsed="1"/>
     <col min="312" max="312" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="313" max="313" width="9.140625" style="1" collapsed="1"/>
-    <col min="314" max="314" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="314" max="314" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="315" max="319" width="9.140625" style="1" collapsed="1"/>
     <col min="320" max="320" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="321" max="354" width="9.140625" style="1" collapsed="1"/>
+    <col min="321" max="323" width="9.140625" style="1" collapsed="1"/>
+    <col min="324" max="324" width="14.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="325" max="354" width="9.140625" style="1" collapsed="1"/>
     <col min="355" max="355" width="22.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="356" max="356" width="9.140625" style="1" collapsed="1"/>
     <col min="357" max="357" width="18.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2846,36 +2892,38 @@
     <col min="404" max="404" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="405" max="405" width="27.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="406" max="406" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="407" max="412" width="9.140625" style="1"/>
+    <col min="407" max="409" width="9.140625" style="1"/>
+    <col min="410" max="410" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="411" max="412" width="9.140625" style="1"/>
     <col min="413" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:410" ht="105">
+    <row r="1" spans="1:410" ht="70.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>415</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="34" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2908,28 +2956,28 @@
       <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="34" t="s">
         <v>3</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="34" t="s">
         <v>23</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -3001,29 +3049,29 @@
       <c r="AX1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="34" t="s">
+        <v>567</v>
+      </c>
+      <c r="AZ1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="BC1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE1" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="BF1" s="34" t="s">
         <v>570</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="BG1" s="2" t="s">
         <v>57</v>
@@ -3076,10 +3124,10 @@
       <c r="BW1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BX1" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY1" s="34" t="s">
         <v>264</v>
       </c>
       <c r="BZ1" s="2" t="s">
@@ -3109,172 +3157,172 @@
       <c r="CH1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="CJ1" s="16" t="s">
+      <c r="CJ1" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="CK1" s="16" t="s">
+      <c r="CK1" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="CL1" s="16" t="s">
+      <c r="CL1" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="CM1" s="16" t="s">
+      <c r="CM1" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="CN1" s="16" t="s">
+      <c r="CN1" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="CO1" s="16" t="s">
+      <c r="CO1" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="CP1" s="16" t="s">
+      <c r="CP1" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="CQ1" s="16" t="s">
+      <c r="CQ1" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="CR1" s="16" t="s">
+      <c r="CR1" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="CS1" s="16" t="s">
+      <c r="CS1" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="CT1" s="16" t="s">
+      <c r="CT1" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="CU1" s="16" t="s">
+      <c r="CU1" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="CV1" s="16" t="s">
+      <c r="CV1" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="CW1" s="16" t="s">
+      <c r="CW1" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="CX1" s="16" t="s">
+      <c r="CX1" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="CY1" s="16" t="s">
+      <c r="CY1" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="CZ1" s="16" t="s">
+      <c r="CZ1" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="DA1" s="16" t="s">
+      <c r="DA1" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="DB1" s="16" t="s">
+      <c r="DB1" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="DC1" s="16" t="s">
+      <c r="DC1" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="DD1" s="16" t="s">
+      <c r="DD1" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="DE1" s="16" t="s">
+      <c r="DE1" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="DF1" s="16" t="s">
+      <c r="DF1" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="DG1" s="16" t="s">
+      <c r="DG1" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="DH1" s="16" t="s">
+      <c r="DH1" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="DI1" s="16" t="s">
+      <c r="DI1" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="DJ1" s="16" t="s">
+      <c r="DJ1" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="DK1" s="16" t="s">
+      <c r="DK1" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="DL1" s="16" t="s">
+      <c r="DL1" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="DM1" s="16" t="s">
+      <c r="DM1" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="DN1" s="16" t="s">
+      <c r="DN1" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="DO1" s="16" t="s">
+      <c r="DO1" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="DP1" s="16" t="s">
+      <c r="DP1" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="DQ1" s="16" t="s">
+      <c r="DQ1" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="DR1" s="16" t="s">
+      <c r="DR1" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="DS1" s="16" t="s">
+      <c r="DS1" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="DT1" s="16" t="s">
+      <c r="DT1" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="DU1" s="16" t="s">
+      <c r="DU1" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="DV1" s="16" t="s">
+      <c r="DV1" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="DW1" s="16" t="s">
+      <c r="DW1" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="DX1" s="16" t="s">
+      <c r="DX1" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="DY1" s="16" t="s">
+      <c r="DY1" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="DZ1" s="16" t="s">
+      <c r="DZ1" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="EA1" s="16" t="s">
+      <c r="EA1" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="EB1" s="16" t="s">
+      <c r="EB1" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="EC1" s="16" t="s">
+      <c r="EC1" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="ED1" s="16" t="s">
+      <c r="ED1" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="EE1" s="16" t="s">
+      <c r="EE1" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="EF1" s="16" t="s">
+      <c r="EF1" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="EG1" s="16" t="s">
+      <c r="EG1" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="EH1" s="16" t="s">
+      <c r="EH1" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="EI1" s="16" t="s">
+      <c r="EI1" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="EJ1" s="16" t="s">
+      <c r="EJ1" s="15" t="s">
         <v>422</v>
       </c>
       <c r="EK1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EL1" s="34" t="s">
         <v>92</v>
       </c>
       <c r="EM1" s="2" t="s">
@@ -3544,13 +3592,13 @@
       <c r="HW1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="HX1" s="2" t="s">
+      <c r="HX1" s="34" t="s">
         <v>203</v>
       </c>
       <c r="HY1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="HZ1" s="2" t="s">
+      <c r="HZ1" s="34" t="s">
         <v>206</v>
       </c>
       <c r="IA1" s="2" t="s">
@@ -3574,31 +3622,31 @@
       <c r="IG1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="IH1" s="3" t="s">
+      <c r="IH1" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="II1" s="3" t="s">
+      <c r="II1" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="IJ1" s="3" t="s">
+      <c r="IJ1" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="IK1" s="3" t="s">
+      <c r="IK1" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="IL1" s="3" t="s">
+      <c r="IL1" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="IM1" s="3" t="s">
+      <c r="IM1" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="IN1" s="3" t="s">
+      <c r="IN1" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="IO1" s="3" t="s">
+      <c r="IO1" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="IP1" s="3" t="s">
+      <c r="IP1" s="36" t="s">
         <v>232</v>
       </c>
       <c r="IQ1" s="3" t="s">
@@ -3655,13 +3703,13 @@
       <c r="JH1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="JI1" s="2" t="s">
+      <c r="JI1" s="34" t="s">
         <v>424</v>
       </c>
       <c r="JJ1" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="JK1" s="2" t="s">
+      <c r="JK1" s="34" t="s">
         <v>426</v>
       </c>
       <c r="JL1" s="2" t="s">
@@ -3685,31 +3733,31 @@
       <c r="JR1" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="JS1" s="3" t="s">
+      <c r="JS1" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="JT1" s="3" t="s">
+      <c r="JT1" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="JU1" s="3" t="s">
+      <c r="JU1" s="36" t="s">
         <v>438</v>
       </c>
-      <c r="JV1" s="3" t="s">
+      <c r="JV1" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="JW1" s="3" t="s">
+      <c r="JW1" s="36" t="s">
         <v>435</v>
       </c>
-      <c r="JX1" s="3" t="s">
+      <c r="JX1" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="JY1" s="3" t="s">
+      <c r="JY1" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="JZ1" s="3" t="s">
+      <c r="JZ1" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="KA1" s="3" t="s">
+      <c r="KA1" s="36" t="s">
         <v>440</v>
       </c>
       <c r="KB1" s="3" t="s">
@@ -3790,7 +3838,7 @@
       <c r="LA1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="LB1" s="3" t="s">
+      <c r="LB1" s="36" t="s">
         <v>344</v>
       </c>
       <c r="LC1" s="3" t="s">
@@ -3820,7 +3868,7 @@
       <c r="LK1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="LL1" s="3" t="s">
+      <c r="LL1" s="36" t="s">
         <v>362</v>
       </c>
       <c r="LM1" s="3" t="s">
@@ -3961,132 +4009,132 @@
       <c r="NF1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="NG1" s="28" t="s">
+      <c r="NG1" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="NH1" s="28" t="s">
+      <c r="NH1" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="NI1" s="28" t="s">
+      <c r="NI1" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="NJ1" s="28" t="s">
+      <c r="NJ1" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="NK1" s="28" t="s">
+      <c r="NK1" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="NL1" s="28" t="s">
+      <c r="NL1" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="NM1" s="28" t="s">
+      <c r="NM1" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="NN1" s="28" t="s">
+      <c r="NN1" s="27" t="s">
         <v>480</v>
       </c>
-      <c r="NO1" s="28" t="s">
+      <c r="NO1" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="NP1" s="28" t="s">
+      <c r="NP1" s="27" t="s">
         <v>482</v>
       </c>
-      <c r="NQ1" s="28" t="s">
+      <c r="NQ1" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="NR1" s="28" t="s">
+      <c r="NR1" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="NS1" s="28" t="s">
+      <c r="NS1" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="NT1" s="28" t="s">
+      <c r="NT1" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="NU1" s="28" t="s">
+      <c r="NU1" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="NV1" s="28" t="s">
+      <c r="NV1" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="NW1" s="28" t="s">
+      <c r="NW1" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="NX1" s="28" t="s">
+      <c r="NX1" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="NY1" s="28" t="s">
+      <c r="NY1" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="NZ1" s="28" t="s">
+      <c r="NZ1" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="OA1" s="28" t="s">
+      <c r="OA1" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="OB1" s="28" t="s">
+      <c r="OB1" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="OC1" s="28" t="s">
+      <c r="OC1" s="27" t="s">
         <v>495</v>
       </c>
-      <c r="OD1" s="28" t="s">
+      <c r="OD1" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="OE1" s="28" t="s">
+      <c r="OE1" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="OF1" s="28" t="s">
+      <c r="OF1" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="OG1" s="28" t="s">
+      <c r="OG1" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="OH1" s="28" t="s">
+      <c r="OH1" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="OI1" s="28" t="s">
+      <c r="OI1" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="OJ1" s="28" t="s">
+      <c r="OJ1" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="OK1" s="28" t="s">
+      <c r="OK1" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="OL1" s="28" t="s">
+      <c r="OL1" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="OM1" s="28" t="s">
+      <c r="OM1" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="ON1" s="28" t="s">
+      <c r="ON1" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="OO1" s="28" t="s">
+      <c r="OO1" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="OP1" s="28" t="s">
+      <c r="OP1" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="OQ1" s="28" t="s">
+      <c r="OQ1" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="OR1" s="28" t="s">
+      <c r="OR1" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="OS1" s="28" t="s">
+      <c r="OS1" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="OT1" s="28" t="s">
+      <c r="OT1" s="27" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:410" ht="27" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>418</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -4096,34 +4144,34 @@
         <v>62</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>574</v>
+        <v>662</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>574</v>
+        <v>662</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>575</v>
+        <v>663</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>576</v>
+        <v>664</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>577</v>
+        <v>665</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>578</v>
+        <v>666</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>579</v>
+        <v>667</v>
       </c>
       <c r="N2" s="4">
-        <v>9341179350</v>
+        <v>9341479350</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>71</v>
@@ -4147,22 +4195,22 @@
         <v>6</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>580</v>
+        <v>668</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>581</v>
+        <v>669</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>580</v>
+        <v>668</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>581</v>
+        <v>669</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>72</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>582</v>
+        <v>670</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>25</v>
@@ -4186,10 +4234,10 @@
         <v>37</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>583</v>
+        <v>671</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>584</v>
+        <v>672</v>
       </c>
       <c r="AK2" s="6" t="s">
         <v>535</v>
@@ -4198,19 +4246,19 @@
         <v>42</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>585</v>
+        <v>673</v>
       </c>
       <c r="AN2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>580</v>
+        <v>668</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>586</v>
+        <v>674</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>587</v>
+        <v>675</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>536</v>
@@ -4219,7 +4267,7 @@
         <v>55</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>588</v>
+        <v>676</v>
       </c>
       <c r="AU2" s="6" t="s">
         <v>70</v>
@@ -4237,25 +4285,25 @@
         <v>79</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="BA2" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="BB2" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC2" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="BD2" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="BE2" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF2" s="33" t="s">
-        <v>589</v>
+        <v>677</v>
+      </c>
+      <c r="BA2" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="BB2" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC2" s="32" t="s">
+        <v>668</v>
+      </c>
+      <c r="BD2" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="BE2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF2" s="32" t="s">
+        <v>677</v>
       </c>
       <c r="BG2" s="6" t="s">
         <v>58</v>
@@ -4294,7 +4342,7 @@
         <v>79</v>
       </c>
       <c r="BS2" s="7" t="s">
-        <v>591</v>
+        <v>679</v>
       </c>
       <c r="BT2" s="6" t="s">
         <v>87</v>
@@ -4341,103 +4389,103 @@
       <c r="CH2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="CI2" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="CJ2" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK2" s="18" t="s">
+      <c r="CI2" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK2" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="CL2" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM2" s="17" t="s">
+      <c r="CL2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM2" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="CN2" s="17" t="s">
+      <c r="CN2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="CO2" s="17" t="s">
+      <c r="CO2" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="CP2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CQ2" s="17" t="s">
+      <c r="CP2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CQ2" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="CR2" s="17" t="s">
+      <c r="CR2" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="CS2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CT2" s="17" t="s">
+      <c r="CS2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CT2" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="CU2" s="17" t="s">
+      <c r="CU2" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="CV2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CW2" s="17" t="s">
+      <c r="CV2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CW2" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="CX2" s="17" t="s">
+      <c r="CX2" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="CY2" s="19" t="s">
+      <c r="CY2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="CZ2" s="19" t="s">
+      <c r="CZ2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DA2" s="19" t="s">
+      <c r="DA2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DB2" s="19" t="s">
+      <c r="DB2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DC2" s="19" t="s">
+      <c r="DC2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DD2" s="19" t="s">
+      <c r="DD2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DE2" s="19" t="s">
+      <c r="DE2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DF2" s="19" t="s">
+      <c r="DF2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DG2" s="19" t="s">
+      <c r="DG2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DH2" s="19" t="s">
+      <c r="DH2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DI2" s="19" t="s">
+      <c r="DI2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DJ2" s="19" t="s">
+      <c r="DJ2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DK2" s="19" t="s">
+      <c r="DK2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DL2" s="19" t="s">
+      <c r="DL2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DM2" s="19" t="s">
+      <c r="DM2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DN2" s="19" t="s">
+      <c r="DN2" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="DO2" s="19" t="s">
+      <c r="DO2" s="18" t="s">
         <v>309</v>
       </c>
       <c r="DP2" s="1" t="s">
@@ -4447,7 +4495,7 @@
         <v>309</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>568</v>
+        <v>681</v>
       </c>
       <c r="DS2" s="1" t="s">
         <v>62</v>
@@ -4470,7 +4518,7 @@
       <c r="DY2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="DZ2" s="20" t="s">
+      <c r="DZ2" s="19" t="s">
         <v>331</v>
       </c>
       <c r="EA2" s="1" t="s">
@@ -4500,46 +4548,46 @@
       <c r="EI2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="EJ2" s="23" t="s">
+      <c r="EJ2" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="EK2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="EL2" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="EM2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="EN2" s="12" t="s">
+      <c r="EK2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="EL2" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="EM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="EN2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="EO2" s="12" t="s">
+      <c r="EO2" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="EP2" s="12" t="s">
+      <c r="EP2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="EQ2" s="12" t="s">
+      <c r="EQ2" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="ER2" s="12" t="s">
+      <c r="ER2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="ES2" s="12" t="s">
+      <c r="ES2" s="11" t="s">
         <v>104</v>
       </c>
       <c r="ET2" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="EU2" s="12" t="s">
+      <c r="EU2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="EV2" s="12" t="s">
+      <c r="EV2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="EW2" s="12" t="s">
+      <c r="EW2" s="11" t="s">
         <v>556</v>
       </c>
       <c r="EX2" s="6" t="s">
@@ -4548,40 +4596,40 @@
       <c r="EY2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="EZ2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="FA2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="FB2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FC2" s="12" t="s">
+      <c r="EZ2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="FA2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="FB2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FC2" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="FD2" s="12" t="s">
+      <c r="FD2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="FE2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FF2" s="12" t="s">
+      <c r="FE2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FF2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="FG2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FH2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FI2" s="12" t="s">
+      <c r="FG2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FH2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FI2" s="11" t="s">
         <v>79</v>
       </c>
       <c r="FJ2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="FK2" s="13" t="s">
+      <c r="FK2" s="12" t="s">
         <v>122</v>
       </c>
       <c r="FL2" s="6" t="s">
@@ -4777,60 +4825,60 @@
         <v>202</v>
       </c>
       <c r="HX2" s="6" t="s">
-        <v>592</v>
+        <v>682</v>
       </c>
       <c r="HY2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="HZ2" s="30" t="s">
-        <v>679</v>
+      <c r="HZ2" s="29" t="s">
+        <v>689</v>
       </c>
       <c r="IA2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="IB2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="IC2" s="15" t="s">
+      <c r="IB2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="IC2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="ID2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="IE2" s="14" t="s">
+      <c r="ID2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="IE2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="IF2" s="14" t="s">
+      <c r="IF2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="IG2" s="14" t="s">
+      <c r="IG2" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="IH2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="II2" s="14" t="s">
+      <c r="IH2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="II2" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="IJ2" s="14" t="s">
+      <c r="IJ2" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="IK2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="IL2" s="14" t="s">
+      <c r="IK2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="IL2" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="IM2" s="14" t="s">
+      <c r="IM2" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="IN2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="IO2" s="14" t="s">
+      <c r="IN2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="IO2" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="IP2" s="14" t="s">
+      <c r="IP2" s="13" t="s">
         <v>217</v>
       </c>
       <c r="IQ2" s="6" t="s">
@@ -4845,7 +4893,7 @@
       <c r="IT2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="IU2" s="15" t="s">
+      <c r="IU2" s="14" t="s">
         <v>236</v>
       </c>
       <c r="IV2" s="6" t="s">
@@ -4888,7 +4936,7 @@
         <v>261</v>
       </c>
       <c r="JI2" s="6" t="s">
-        <v>593</v>
+        <v>683</v>
       </c>
       <c r="JJ2" s="6" t="s">
         <v>205</v>
@@ -4899,50 +4947,50 @@
       <c r="JL2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="JM2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JN2" s="15" t="s">
+      <c r="JM2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JN2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="JO2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="JP2" s="14" t="s">
+      <c r="JO2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="JP2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="JQ2" s="14" t="s">
+      <c r="JQ2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="JR2" s="14" t="s">
+      <c r="JR2" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="JS2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JT2" s="14" t="s">
+      <c r="JS2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JT2" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="JU2" s="14" t="s">
+      <c r="JU2" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="JV2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="JW2" s="14" t="s">
+      <c r="JV2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="JW2" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="JX2" s="14" t="s">
+      <c r="JX2" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="JY2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JZ2" s="14" t="s">
+      <c r="JY2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JZ2" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="KA2" s="14" t="s">
-        <v>62</v>
+      <c r="KA2" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="KB2" s="6" t="s">
         <v>79</v>
@@ -4956,7 +5004,7 @@
       <c r="KE2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="KF2" s="15" t="s">
+      <c r="KF2" s="14" t="s">
         <v>236</v>
       </c>
       <c r="KG2" s="6" t="s">
@@ -4998,10 +5046,10 @@
       <c r="KS2" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="KT2" s="21" t="s">
+      <c r="KT2" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="KU2" s="21" t="s">
+      <c r="KU2" s="20" t="s">
         <v>472</v>
       </c>
       <c r="KV2" s="1" t="s">
@@ -5016,142 +5064,142 @@
       <c r="KY2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="KZ2" s="22" t="s">
+      <c r="KZ2" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="LA2" s="22" t="s">
+      <c r="LA2" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="LB2" s="31" t="s">
-        <v>684</v>
-      </c>
-      <c r="LC2" s="22" t="s">
+      <c r="LB2" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="LC2" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="LD2" s="22" t="s">
+      <c r="LD2" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="LE2" s="22" t="s">
+      <c r="LE2" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="LF2" s="22" t="s">
+      <c r="LF2" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="LG2" s="22" t="s">
+      <c r="LG2" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="LH2" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="LI2" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="LJ2" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LK2" s="23" t="s">
+      <c r="LH2" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="LI2" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="LJ2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LK2" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="LL2" s="32" t="s">
-        <v>689</v>
-      </c>
-      <c r="LM2" s="23" t="s">
+      <c r="LL2" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="LM2" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="LN2" s="23" t="s">
+      <c r="LN2" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="LO2" s="23" t="s">
+      <c r="LO2" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="LP2" s="23" t="s">
+      <c r="LP2" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="LQ2" s="23" t="s">
+      <c r="LQ2" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="LR2" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LS2" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LT2" s="24" t="s">
+      <c r="LR2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LS2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LT2" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="LU2" s="24" t="s">
+      <c r="LU2" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="LV2" s="24" t="s">
+      <c r="LV2" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="LW2" s="25" t="s">
+      <c r="LW2" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="LX2" s="25" t="s">
+      <c r="LX2" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="LY2" s="25" t="s">
+      <c r="LY2" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="LZ2" s="26" t="s">
+      <c r="LZ2" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="MA2" s="25" t="s">
+      <c r="MA2" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="MB2" s="25" t="s">
+      <c r="MB2" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="MC2" s="24" t="s">
+      <c r="MC2" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="MD2" s="24" t="s">
+      <c r="MD2" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="ME2" s="24" t="s">
+      <c r="ME2" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="MF2" s="25" t="s">
+      <c r="MF2" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="MG2" s="25" t="s">
+      <c r="MG2" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="MH2" s="27" t="s">
+      <c r="MH2" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="MI2" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="MJ2" s="25" t="s">
+      <c r="MI2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="MJ2" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="MK2" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="ML2" s="25" t="s">
+      <c r="MK2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="ML2" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="MM2" s="27" t="s">
+      <c r="MM2" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="MN2" s="26" t="s">
+      <c r="MN2" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="MO2" s="27" t="s">
+      <c r="MO2" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="MP2" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MQ2" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MR2" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MS2" s="25" t="s">
+      <c r="MP2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MQ2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MR2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MS2" s="24" t="s">
         <v>80</v>
       </c>
       <c r="MT2" s="1" t="s">
@@ -5175,31 +5223,31 @@
       <c r="MZ2" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="NA2" s="23" t="s">
+      <c r="NA2" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="NB2" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NC2" s="23" t="s">
+      <c r="NB2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NC2" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="ND2" s="23" t="s">
+      <c r="ND2" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="NE2" s="23" t="s">
+      <c r="NE2" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="NF2" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NG2" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NH2" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NI2" s="23" t="s">
+      <c r="NF2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NG2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NH2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NI2" s="22" t="s">
         <v>79</v>
       </c>
       <c r="NJ2" s="1" t="s">
@@ -5269,18 +5317,18 @@
         <v>498</v>
       </c>
       <c r="OF2" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="OG2" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="OG2" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="OH2" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="OI2" s="18" t="s">
+      <c r="OH2" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="OI2" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="OJ2" s="18" t="s">
+      <c r="OJ2" s="17" t="s">
         <v>521</v>
       </c>
       <c r="OK2" s="1" t="s">
@@ -5292,7 +5340,7 @@
       <c r="OM2" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="ON2" s="23" t="s">
+      <c r="ON2" s="22" t="s">
         <v>529</v>
       </c>
       <c r="OO2" s="1" t="s">
@@ -5314,11 +5362,11 @@
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:410" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:410" s="22" customFormat="1" ht="27" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>418</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -5328,34 +5376,34 @@
         <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>596</v>
+        <v>642</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>597</v>
+        <v>643</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>598</v>
+        <v>644</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="N3" s="4">
-        <v>9350479350</v>
+        <v>9350779350</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>71</v>
@@ -5379,22 +5427,22 @@
         <v>6</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>600</v>
+        <v>646</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>600</v>
+        <v>646</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="Z3" s="6" t="s">
         <v>72</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>25</v>
@@ -5418,10 +5466,10 @@
         <v>37</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>604</v>
+        <v>650</v>
       </c>
       <c r="AK3" s="6" t="s">
         <v>535</v>
@@ -5430,19 +5478,19 @@
         <v>42</v>
       </c>
       <c r="AM3" s="7" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="AN3" s="8" t="s">
         <v>191</v>
       </c>
       <c r="AO3" s="6" t="s">
-        <v>600</v>
+        <v>646</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="AQ3" s="6" t="s">
-        <v>607</v>
+        <v>653</v>
       </c>
       <c r="AR3" s="6" t="s">
         <v>536</v>
@@ -5451,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="AT3" s="7" t="s">
-        <v>608</v>
+        <v>654</v>
       </c>
       <c r="AU3" s="6" t="s">
         <v>70</v>
@@ -5465,29 +5513,29 @@
       <c r="AX3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AY3" s="23" t="s">
+      <c r="AY3" s="22" t="s">
         <v>79</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="BA3" s="33" t="s">
-        <v>610</v>
-      </c>
-      <c r="BB3" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC3" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="BD3" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="BE3" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF3" s="33" t="s">
-        <v>609</v>
+        <v>655</v>
+      </c>
+      <c r="BA3" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="BB3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC3" s="32" t="s">
+        <v>646</v>
+      </c>
+      <c r="BD3" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="BE3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF3" s="32" t="s">
+        <v>655</v>
       </c>
       <c r="BG3" s="6" t="s">
         <v>58</v>
@@ -5526,7 +5574,7 @@
         <v>79</v>
       </c>
       <c r="BS3" s="7" t="s">
-        <v>611</v>
+        <v>657</v>
       </c>
       <c r="BT3" s="6" t="s">
         <v>87</v>
@@ -5573,205 +5621,205 @@
       <c r="CH3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="CI3" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="CJ3" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK3" s="18" t="s">
+      <c r="CI3" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="CJ3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK3" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="CL3" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM3" s="17" t="s">
+      <c r="CL3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM3" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="CN3" s="17" t="s">
+      <c r="CN3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="CO3" s="17" t="s">
+      <c r="CO3" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="CP3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CQ3" s="17" t="s">
+      <c r="CP3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CQ3" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="CR3" s="17" t="s">
+      <c r="CR3" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="CS3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CT3" s="17" t="s">
+      <c r="CS3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CT3" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="CU3" s="17" t="s">
+      <c r="CU3" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="CV3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CW3" s="17" t="s">
+      <c r="CV3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CW3" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="CX3" s="17" t="s">
+      <c r="CX3" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="CY3" s="19" t="s">
+      <c r="CY3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="CZ3" s="19" t="s">
+      <c r="CZ3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DA3" s="19" t="s">
+      <c r="DA3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DB3" s="19" t="s">
+      <c r="DB3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DC3" s="19" t="s">
+      <c r="DC3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DD3" s="19" t="s">
+      <c r="DD3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DE3" s="19" t="s">
+      <c r="DE3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DF3" s="19" t="s">
+      <c r="DF3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DG3" s="19" t="s">
+      <c r="DG3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DH3" s="19" t="s">
+      <c r="DH3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DI3" s="19" t="s">
+      <c r="DI3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DJ3" s="19" t="s">
+      <c r="DJ3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DK3" s="19" t="s">
+      <c r="DK3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DL3" s="19" t="s">
+      <c r="DL3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DM3" s="19" t="s">
+      <c r="DM3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DN3" s="19" t="s">
+      <c r="DN3" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="DO3" s="19" t="s">
+      <c r="DO3" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="DP3" s="23" t="s">
+      <c r="DP3" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="DQ3" s="23" t="s">
+      <c r="DQ3" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="DR3" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="DS3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="DT3" s="23" t="s">
+      <c r="DR3" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="DS3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="DT3" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="DU3" s="23" t="s">
+      <c r="DU3" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="DV3" s="23" t="s">
+      <c r="DV3" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="DW3" s="23" t="s">
+      <c r="DW3" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="DX3" s="23" t="s">
+      <c r="DX3" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="DY3" s="23" t="s">
+      <c r="DY3" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="DZ3" s="20" t="s">
+      <c r="DZ3" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="EA3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="EB3" s="23" t="s">
+      <c r="EA3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="EB3" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="EC3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="ED3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EE3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EF3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EG3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EH3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EI3" s="23" t="s">
+      <c r="EC3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="ED3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EE3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EF3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EG3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EH3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EI3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="EJ3" s="23" t="s">
+      <c r="EJ3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="EK3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="EL3" s="29" t="s">
-        <v>675</v>
-      </c>
-      <c r="EM3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="EN3" s="12" t="s">
+      <c r="EK3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="EL3" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="EM3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="EN3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="EO3" s="12" t="s">
+      <c r="EO3" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="EP3" s="12" t="s">
+      <c r="EP3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="EQ3" s="12" t="s">
+      <c r="EQ3" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="ER3" s="12" t="s">
+      <c r="ER3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="ES3" s="12" t="s">
+      <c r="ES3" s="11" t="s">
         <v>104</v>
       </c>
       <c r="ET3" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="EU3" s="12" t="s">
+      <c r="EU3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="EV3" s="12" t="s">
+      <c r="EV3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="EW3" s="12" t="s">
+      <c r="EW3" s="11" t="s">
         <v>556</v>
       </c>
       <c r="EX3" s="6" t="s">
@@ -5780,40 +5828,40 @@
       <c r="EY3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="EZ3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="FA3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="FB3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FC3" s="12" t="s">
+      <c r="EZ3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="FA3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="FB3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FC3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="FD3" s="12" t="s">
+      <c r="FD3" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="FE3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FF3" s="12" t="s">
+      <c r="FE3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FF3" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="FG3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FH3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FI3" s="12" t="s">
+      <c r="FG3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FH3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FI3" s="11" t="s">
         <v>79</v>
       </c>
       <c r="FJ3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="FK3" s="13" t="s">
+      <c r="FK3" s="12" t="s">
         <v>122</v>
       </c>
       <c r="FL3" s="6" t="s">
@@ -6009,60 +6057,60 @@
         <v>202</v>
       </c>
       <c r="HX3" s="6" t="s">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="HY3" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="HZ3" s="30" t="s">
-        <v>680</v>
+      <c r="HZ3" s="29" t="s">
+        <v>690</v>
       </c>
       <c r="IA3" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="IB3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="IC3" s="15" t="s">
+      <c r="IB3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="IC3" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="ID3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="IE3" s="14" t="s">
+      <c r="ID3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="IE3" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="IF3" s="14" t="s">
+      <c r="IF3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="IG3" s="14" t="s">
+      <c r="IG3" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="IH3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="II3" s="14" t="s">
+      <c r="IH3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="II3" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="IJ3" s="14" t="s">
+      <c r="IJ3" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="IK3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="IL3" s="14" t="s">
+      <c r="IK3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="IL3" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="IM3" s="14" t="s">
+      <c r="IM3" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="IN3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="IO3" s="14" t="s">
+      <c r="IN3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="IO3" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="IP3" s="14" t="s">
+      <c r="IP3" s="13" t="s">
         <v>217</v>
       </c>
       <c r="IQ3" s="6" t="s">
@@ -6077,7 +6125,7 @@
       <c r="IT3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="IU3" s="15" t="s">
+      <c r="IU3" s="14" t="s">
         <v>236</v>
       </c>
       <c r="IV3" s="6" t="s">
@@ -6120,7 +6168,7 @@
         <v>261</v>
       </c>
       <c r="JI3" s="6" t="s">
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="JJ3" s="6" t="s">
         <v>205</v>
@@ -6131,50 +6179,50 @@
       <c r="JL3" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="JM3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JN3" s="15" t="s">
+      <c r="JM3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JN3" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="JO3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="JP3" s="14" t="s">
+      <c r="JO3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="JP3" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="JQ3" s="14" t="s">
+      <c r="JQ3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="JR3" s="14" t="s">
+      <c r="JR3" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="JS3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JT3" s="14" t="s">
+      <c r="JS3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JT3" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="JU3" s="14" t="s">
+      <c r="JU3" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="JV3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="JW3" s="14" t="s">
+      <c r="JV3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="JW3" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="JX3" s="14" t="s">
+      <c r="JX3" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="JY3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JZ3" s="14" t="s">
+      <c r="JY3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JZ3" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="KA3" s="14" t="s">
-        <v>62</v>
+      <c r="KA3" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="KB3" s="6" t="s">
         <v>79</v>
@@ -6188,7 +6236,7 @@
       <c r="KE3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="KF3" s="15" t="s">
+      <c r="KF3" s="14" t="s">
         <v>236</v>
       </c>
       <c r="KG3" s="6" t="s">
@@ -6230,327 +6278,327 @@
       <c r="KS3" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="KT3" s="21" t="s">
+      <c r="KT3" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="KU3" s="21" t="s">
+      <c r="KU3" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="KV3" s="23" t="s">
+      <c r="KV3" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="KW3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="KX3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="KY3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="KZ3" s="23" t="s">
+      <c r="KW3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="KX3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="KY3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="KZ3" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="LA3" s="23" t="s">
+      <c r="LA3" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="LB3" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="LC3" s="23" t="s">
+      <c r="LB3" s="30" t="s">
+        <v>695</v>
+      </c>
+      <c r="LC3" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="LD3" s="23" t="s">
+      <c r="LD3" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="LE3" s="23" t="s">
+      <c r="LE3" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="LF3" s="23" t="s">
+      <c r="LF3" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="LG3" s="23" t="s">
+      <c r="LG3" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="LH3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LI3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LJ3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LK3" s="23" t="s">
+      <c r="LH3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LI3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LJ3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LK3" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="LL3" s="32" t="s">
-        <v>690</v>
-      </c>
-      <c r="LM3" s="23" t="s">
+      <c r="LL3" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="LM3" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="LN3" s="23" t="s">
+      <c r="LN3" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="LO3" s="23" t="s">
+      <c r="LO3" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="LP3" s="23" t="s">
+      <c r="LP3" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="LQ3" s="23" t="s">
+      <c r="LQ3" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="LR3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LS3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LT3" s="24" t="s">
+      <c r="LR3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LS3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LT3" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="LU3" s="24" t="s">
+      <c r="LU3" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="LV3" s="24" t="s">
+      <c r="LV3" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="LW3" s="25" t="s">
+      <c r="LW3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="LX3" s="25" t="s">
+      <c r="LX3" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="LY3" s="25" t="s">
+      <c r="LY3" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="LZ3" s="26" t="s">
+      <c r="LZ3" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="MA3" s="25" t="s">
+      <c r="MA3" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="MB3" s="25" t="s">
+      <c r="MB3" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="MC3" s="24" t="s">
+      <c r="MC3" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="MD3" s="24" t="s">
+      <c r="MD3" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="ME3" s="24" t="s">
+      <c r="ME3" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="MF3" s="25" t="s">
+      <c r="MF3" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="MG3" s="25" t="s">
+      <c r="MG3" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="MH3" s="27" t="s">
+      <c r="MH3" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="MI3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="MJ3" s="25" t="s">
+      <c r="MI3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="MJ3" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="MK3" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="ML3" s="25" t="s">
+      <c r="MK3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="ML3" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="MM3" s="27" t="s">
+      <c r="MM3" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="MN3" s="26" t="s">
+      <c r="MN3" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="MO3" s="27" t="s">
+      <c r="MO3" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="MP3" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MQ3" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MR3" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MS3" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MT3" s="23" t="s">
+      <c r="MP3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MQ3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MR3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MS3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MT3" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="MU3" s="23" t="s">
+      <c r="MU3" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="MV3" s="23" t="s">
+      <c r="MV3" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="MW3" s="23" t="s">
+      <c r="MW3" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="MX3" s="23" t="s">
+      <c r="MX3" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="MY3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="MZ3" s="23" t="s">
+      <c r="MY3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="MZ3" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="NA3" s="23" t="s">
+      <c r="NA3" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="NB3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NC3" s="23" t="s">
+      <c r="NB3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NC3" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="ND3" s="23" t="s">
+      <c r="ND3" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="NE3" s="23" t="s">
+      <c r="NE3" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="NF3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NG3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NH3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NI3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="NJ3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NK3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="NL3" s="23" t="s">
+      <c r="NF3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NG3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NH3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NI3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="NJ3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NK3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="NL3" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="NM3" s="23" t="s">
+      <c r="NM3" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="NN3" s="23" t="s">
+      <c r="NN3" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="NO3" s="23" t="s">
+      <c r="NO3" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="NP3" s="23" t="s">
+      <c r="NP3" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="NQ3" s="23" t="s">
+      <c r="NQ3" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="NR3" s="23" t="s">
+      <c r="NR3" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="NS3" s="23" t="s">
+      <c r="NS3" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="NT3" s="23" t="s">
+      <c r="NT3" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="NU3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NV3" s="23" t="s">
+      <c r="NU3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NV3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="NW3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NX3" s="23" t="s">
+      <c r="NW3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NX3" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="NY3" s="23" t="s">
+      <c r="NY3" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="NZ3" s="23" t="s">
+      <c r="NZ3" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="OA3" s="23" t="s">
+      <c r="OA3" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="OB3" s="23" t="s">
+      <c r="OB3" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="OC3" s="23" t="s">
+      <c r="OC3" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="OD3" s="23" t="s">
+      <c r="OD3" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="OE3" s="23" t="s">
+      <c r="OE3" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="OF3" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="OG3" s="23" t="s">
+      <c r="OF3" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="OG3" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="OH3" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="OI3" s="18" t="s">
+      <c r="OH3" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="OI3" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="OJ3" s="18" t="s">
+      <c r="OJ3" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="OK3" s="23" t="s">
+      <c r="OK3" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="OL3" s="23" t="s">
+      <c r="OL3" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="OM3" s="23" t="s">
+      <c r="OM3" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="ON3" s="23" t="s">
+      <c r="ON3" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="OO3" s="23" t="s">
+      <c r="OO3" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="OP3" s="23" t="s">
+      <c r="OP3" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="OQ3" s="23" t="s">
+      <c r="OQ3" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="OR3" s="23" t="s">
+      <c r="OR3" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="OS3" s="23" t="s">
+      <c r="OS3" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="OT3" s="23" t="s">
+      <c r="OT3" s="22" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="4" spans="1:410" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:410" s="22" customFormat="1" ht="27" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>418</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -6560,34 +6608,34 @@
         <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="N4" s="4">
-        <v>9360279350</v>
+        <v>9360579350</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>71</v>
@@ -6611,22 +6659,22 @@
         <v>6</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="Z4" s="6" t="s">
         <v>72</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>25</v>
@@ -6650,10 +6698,10 @@
         <v>37</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="AK4" s="6" t="s">
         <v>535</v>
@@ -6662,19 +6710,19 @@
         <v>42</v>
       </c>
       <c r="AM4" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AN4" s="8" t="s">
         <v>191</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="AP4" s="6" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="AQ4" s="6" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="AR4" s="6" t="s">
         <v>536</v>
@@ -6683,7 +6731,7 @@
         <v>55</v>
       </c>
       <c r="AT4" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="AU4" s="6" t="s">
         <v>70</v>
@@ -6697,29 +6745,29 @@
       <c r="AX4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AY4" s="23" t="s">
+      <c r="AY4" s="22" t="s">
         <v>79</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="BA4" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="BB4" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC4" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="BD4" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="BE4" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF4" s="33" t="s">
-        <v>629</v>
+        <v>633</v>
+      </c>
+      <c r="BA4" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="BB4" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC4" s="32" t="s">
+        <v>624</v>
+      </c>
+      <c r="BD4" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="BE4" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF4" s="32" t="s">
+        <v>633</v>
       </c>
       <c r="BG4" s="6" t="s">
         <v>58</v>
@@ -6758,7 +6806,7 @@
         <v>79</v>
       </c>
       <c r="BS4" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="BT4" s="6" t="s">
         <v>87</v>
@@ -6805,205 +6853,205 @@
       <c r="CH4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="CI4" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="CJ4" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK4" s="18" t="s">
+      <c r="CI4" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="CJ4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK4" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="CL4" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM4" s="17" t="s">
+      <c r="CL4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM4" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="CN4" s="17" t="s">
+      <c r="CN4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="CO4" s="17" t="s">
+      <c r="CO4" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="CP4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CQ4" s="17" t="s">
+      <c r="CP4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CQ4" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="CR4" s="17" t="s">
+      <c r="CR4" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="CS4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CT4" s="17" t="s">
+      <c r="CS4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CT4" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="CU4" s="17" t="s">
+      <c r="CU4" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="CV4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CW4" s="17" t="s">
+      <c r="CV4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CW4" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="CX4" s="17" t="s">
+      <c r="CX4" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="CY4" s="19" t="s">
+      <c r="CY4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="CZ4" s="19" t="s">
+      <c r="CZ4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DA4" s="19" t="s">
+      <c r="DA4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DB4" s="19" t="s">
+      <c r="DB4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DC4" s="19" t="s">
+      <c r="DC4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DD4" s="19" t="s">
+      <c r="DD4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DE4" s="19" t="s">
+      <c r="DE4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DF4" s="19" t="s">
+      <c r="DF4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DG4" s="19" t="s">
+      <c r="DG4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DH4" s="19" t="s">
+      <c r="DH4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DI4" s="19" t="s">
+      <c r="DI4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DJ4" s="19" t="s">
+      <c r="DJ4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DK4" s="19" t="s">
+      <c r="DK4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DL4" s="19" t="s">
+      <c r="DL4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DM4" s="19" t="s">
+      <c r="DM4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DN4" s="19" t="s">
+      <c r="DN4" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="DO4" s="19" t="s">
+      <c r="DO4" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="DP4" s="23" t="s">
+      <c r="DP4" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="DQ4" s="23" t="s">
+      <c r="DQ4" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="DR4" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="DS4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="DT4" s="23" t="s">
+      <c r="DR4" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="DS4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="DT4" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="DU4" s="23" t="s">
+      <c r="DU4" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="DV4" s="23" t="s">
+      <c r="DV4" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="DW4" s="23" t="s">
+      <c r="DW4" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="DX4" s="23" t="s">
+      <c r="DX4" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="DY4" s="23" t="s">
+      <c r="DY4" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="DZ4" s="20" t="s">
+      <c r="DZ4" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="EA4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="EB4" s="23" t="s">
+      <c r="EA4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="EB4" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="EC4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="ED4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EE4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EF4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EG4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EH4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EI4" s="23" t="s">
+      <c r="EC4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="ED4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EE4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EF4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EG4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EH4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EI4" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="EJ4" s="23" t="s">
+      <c r="EJ4" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="EK4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="EL4" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="EM4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="EN4" s="12" t="s">
+      <c r="EK4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="EL4" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="EM4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="EN4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="EO4" s="12" t="s">
+      <c r="EO4" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="EP4" s="12" t="s">
+      <c r="EP4" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="EQ4" s="12" t="s">
+      <c r="EQ4" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="ER4" s="12" t="s">
+      <c r="ER4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="ES4" s="12" t="s">
+      <c r="ES4" s="11" t="s">
         <v>104</v>
       </c>
       <c r="ET4" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="EU4" s="12" t="s">
+      <c r="EU4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="EV4" s="12" t="s">
+      <c r="EV4" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="EW4" s="12" t="s">
+      <c r="EW4" s="11" t="s">
         <v>556</v>
       </c>
       <c r="EX4" s="6" t="s">
@@ -7012,40 +7060,40 @@
       <c r="EY4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="EZ4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="FA4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="FB4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FC4" s="12" t="s">
+      <c r="EZ4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="FA4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="FB4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FC4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="FD4" s="12" t="s">
+      <c r="FD4" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="FE4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FF4" s="12" t="s">
+      <c r="FE4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FF4" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="FG4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FH4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FI4" s="12" t="s">
+      <c r="FG4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FH4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FI4" s="11" t="s">
         <v>79</v>
       </c>
       <c r="FJ4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="FK4" s="13" t="s">
+      <c r="FK4" s="12" t="s">
         <v>122</v>
       </c>
       <c r="FL4" s="6" t="s">
@@ -7241,60 +7289,60 @@
         <v>202</v>
       </c>
       <c r="HX4" s="6" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="HY4" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="HZ4" s="30" t="s">
-        <v>681</v>
+      <c r="HZ4" s="29" t="s">
+        <v>691</v>
       </c>
       <c r="IA4" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="IB4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="IC4" s="15" t="s">
+      <c r="IB4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="IC4" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="ID4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="IE4" s="14" t="s">
+      <c r="ID4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="IE4" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="IF4" s="14" t="s">
+      <c r="IF4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="IG4" s="14" t="s">
+      <c r="IG4" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="IH4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="II4" s="14" t="s">
+      <c r="IH4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="II4" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="IJ4" s="14" t="s">
+      <c r="IJ4" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="IK4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="IL4" s="14" t="s">
+      <c r="IK4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="IL4" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="IM4" s="14" t="s">
+      <c r="IM4" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="IN4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="IO4" s="14" t="s">
+      <c r="IN4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="IO4" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="IP4" s="14" t="s">
+      <c r="IP4" s="13" t="s">
         <v>217</v>
       </c>
       <c r="IQ4" s="6" t="s">
@@ -7309,7 +7357,7 @@
       <c r="IT4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="IU4" s="15" t="s">
+      <c r="IU4" s="14" t="s">
         <v>236</v>
       </c>
       <c r="IV4" s="6" t="s">
@@ -7352,7 +7400,7 @@
         <v>261</v>
       </c>
       <c r="JI4" s="6" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="JJ4" s="6" t="s">
         <v>205</v>
@@ -7363,50 +7411,50 @@
       <c r="JL4" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="JM4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JN4" s="15" t="s">
+      <c r="JM4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JN4" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="JO4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="JP4" s="14" t="s">
+      <c r="JO4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="JP4" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="JQ4" s="14" t="s">
+      <c r="JQ4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="JR4" s="14" t="s">
+      <c r="JR4" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="JS4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JT4" s="14" t="s">
+      <c r="JS4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JT4" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="JU4" s="14" t="s">
+      <c r="JU4" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="JV4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="JW4" s="14" t="s">
+      <c r="JV4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="JW4" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="JX4" s="14" t="s">
+      <c r="JX4" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="JY4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JZ4" s="14" t="s">
+      <c r="JY4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JZ4" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="KA4" s="14" t="s">
-        <v>62</v>
+      <c r="KA4" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="KB4" s="6" t="s">
         <v>79</v>
@@ -7420,7 +7468,7 @@
       <c r="KE4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="KF4" s="15" t="s">
+      <c r="KF4" s="14" t="s">
         <v>236</v>
       </c>
       <c r="KG4" s="6" t="s">
@@ -7462,327 +7510,327 @@
       <c r="KS4" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="KT4" s="21" t="s">
+      <c r="KT4" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="KU4" s="21" t="s">
+      <c r="KU4" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="KV4" s="23" t="s">
+      <c r="KV4" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="KW4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="KX4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="KY4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="KZ4" s="23" t="s">
+      <c r="KW4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="KX4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="KY4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="KZ4" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="LA4" s="23" t="s">
+      <c r="LA4" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="LB4" s="31" t="s">
-        <v>686</v>
-      </c>
-      <c r="LC4" s="23" t="s">
+      <c r="LB4" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="LC4" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="LD4" s="23" t="s">
+      <c r="LD4" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="LE4" s="23" t="s">
+      <c r="LE4" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="LF4" s="23" t="s">
+      <c r="LF4" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="LG4" s="23" t="s">
+      <c r="LG4" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="LH4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LI4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LJ4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LK4" s="23" t="s">
+      <c r="LH4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LI4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LJ4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LK4" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="LL4" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="LM4" s="23" t="s">
+      <c r="LL4" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="LM4" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="LN4" s="23" t="s">
+      <c r="LN4" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="LO4" s="23" t="s">
+      <c r="LO4" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="LP4" s="23" t="s">
+      <c r="LP4" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="LQ4" s="23" t="s">
+      <c r="LQ4" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="LR4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LS4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LT4" s="24" t="s">
+      <c r="LR4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LS4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LT4" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="LU4" s="24" t="s">
+      <c r="LU4" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="LV4" s="24" t="s">
+      <c r="LV4" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="LW4" s="25" t="s">
+      <c r="LW4" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="LX4" s="25" t="s">
+      <c r="LX4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="LY4" s="25" t="s">
+      <c r="LY4" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="LZ4" s="26" t="s">
+      <c r="LZ4" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="MA4" s="25" t="s">
+      <c r="MA4" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="MB4" s="25" t="s">
+      <c r="MB4" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="MC4" s="24" t="s">
+      <c r="MC4" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="MD4" s="24" t="s">
+      <c r="MD4" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="ME4" s="24" t="s">
+      <c r="ME4" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="MF4" s="25" t="s">
+      <c r="MF4" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="MG4" s="25" t="s">
+      <c r="MG4" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="MH4" s="27" t="s">
+      <c r="MH4" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="MI4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="MJ4" s="25" t="s">
+      <c r="MI4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="MJ4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="MK4" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="ML4" s="25" t="s">
+      <c r="MK4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="ML4" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="MM4" s="27" t="s">
+      <c r="MM4" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="MN4" s="26" t="s">
+      <c r="MN4" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="MO4" s="27" t="s">
+      <c r="MO4" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="MP4" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MQ4" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MR4" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MS4" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MT4" s="23" t="s">
+      <c r="MP4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MQ4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MR4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MS4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MT4" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="MU4" s="23" t="s">
+      <c r="MU4" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="MV4" s="23" t="s">
+      <c r="MV4" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="MW4" s="23" t="s">
+      <c r="MW4" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="MX4" s="23" t="s">
+      <c r="MX4" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="MY4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="MZ4" s="23" t="s">
+      <c r="MY4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="MZ4" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="NA4" s="23" t="s">
+      <c r="NA4" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="NB4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NC4" s="23" t="s">
+      <c r="NB4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NC4" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="ND4" s="23" t="s">
+      <c r="ND4" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="NE4" s="23" t="s">
+      <c r="NE4" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="NF4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NG4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NH4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NI4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="NJ4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NK4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="NL4" s="23" t="s">
+      <c r="NF4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NG4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NH4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NI4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="NJ4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NK4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="NL4" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="NM4" s="23" t="s">
+      <c r="NM4" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="NN4" s="23" t="s">
+      <c r="NN4" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="NO4" s="23" t="s">
+      <c r="NO4" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="NP4" s="23" t="s">
+      <c r="NP4" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="NQ4" s="23" t="s">
+      <c r="NQ4" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="NR4" s="23" t="s">
+      <c r="NR4" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="NS4" s="23" t="s">
+      <c r="NS4" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="NT4" s="23" t="s">
+      <c r="NT4" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="NU4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NV4" s="23" t="s">
+      <c r="NU4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NV4" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="NW4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NX4" s="23" t="s">
+      <c r="NW4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NX4" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="NY4" s="23" t="s">
+      <c r="NY4" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="NZ4" s="23" t="s">
+      <c r="NZ4" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="OA4" s="23" t="s">
+      <c r="OA4" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="OB4" s="23" t="s">
+      <c r="OB4" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="OC4" s="23" t="s">
+      <c r="OC4" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="OD4" s="23" t="s">
+      <c r="OD4" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="OE4" s="23" t="s">
+      <c r="OE4" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="OF4" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="OG4" s="23" t="s">
+      <c r="OF4" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="OG4" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="OH4" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="OI4" s="18" t="s">
+      <c r="OH4" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="OI4" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="OJ4" s="18" t="s">
+      <c r="OJ4" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="OK4" s="23" t="s">
+      <c r="OK4" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="OL4" s="23" t="s">
+      <c r="OL4" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="OM4" s="23" t="s">
+      <c r="OM4" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="ON4" s="23" t="s">
+      <c r="ON4" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="OO4" s="23" t="s">
+      <c r="OO4" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="OP4" s="23" t="s">
+      <c r="OP4" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="OQ4" s="23" t="s">
+      <c r="OQ4" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="OR4" s="23" t="s">
+      <c r="OR4" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="OS4" s="23" t="s">
+      <c r="OS4" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="OT4" s="23" t="s">
+      <c r="OT4" s="22" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="1:410" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:410" s="22" customFormat="1" ht="27" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>418</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -7792,34 +7840,34 @@
         <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>635</v>
+        <v>597</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>637</v>
+        <v>599</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>638</v>
+        <v>600</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>639</v>
+        <v>601</v>
       </c>
       <c r="N5" s="4">
-        <v>9372279350</v>
+        <v>9372579350</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>71</v>
@@ -7843,22 +7891,22 @@
         <v>6</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
       <c r="Z5" s="6" t="s">
         <v>72</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>25</v>
@@ -7882,10 +7930,10 @@
         <v>37</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="AK5" s="6" t="s">
         <v>535</v>
@@ -7894,19 +7942,19 @@
         <v>42</v>
       </c>
       <c r="AM5" s="7" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="AN5" s="8" t="s">
         <v>191</v>
       </c>
       <c r="AO5" s="6" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="AP5" s="6" t="s">
-        <v>646</v>
+        <v>608</v>
       </c>
       <c r="AQ5" s="6" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="AR5" s="6" t="s">
         <v>536</v>
@@ -7915,7 +7963,7 @@
         <v>55</v>
       </c>
       <c r="AT5" s="7" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="AU5" s="6" t="s">
         <v>70</v>
@@ -7929,29 +7977,29 @@
       <c r="AX5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AY5" s="23" t="s">
+      <c r="AY5" s="22" t="s">
         <v>79</v>
       </c>
       <c r="AZ5" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="BA5" s="33" t="s">
-        <v>650</v>
-      </c>
-      <c r="BB5" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC5" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="BD5" s="33" t="s">
-        <v>641</v>
-      </c>
-      <c r="BE5" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF5" s="33" t="s">
-        <v>649</v>
+        <v>611</v>
+      </c>
+      <c r="BA5" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="BB5" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC5" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="BD5" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="BE5" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF5" s="32" t="s">
+        <v>611</v>
       </c>
       <c r="BG5" s="6" t="s">
         <v>58</v>
@@ -7990,7 +8038,7 @@
         <v>79</v>
       </c>
       <c r="BS5" s="7" t="s">
-        <v>651</v>
+        <v>613</v>
       </c>
       <c r="BT5" s="6" t="s">
         <v>87</v>
@@ -8037,205 +8085,205 @@
       <c r="CH5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="CI5" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="CJ5" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK5" s="18" t="s">
+      <c r="CI5" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="CJ5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK5" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="CL5" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM5" s="17" t="s">
+      <c r="CL5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM5" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="CN5" s="17" t="s">
+      <c r="CN5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="CO5" s="17" t="s">
+      <c r="CO5" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="CP5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CQ5" s="17" t="s">
+      <c r="CP5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CQ5" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="CR5" s="17" t="s">
+      <c r="CR5" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="CS5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CT5" s="17" t="s">
+      <c r="CS5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CT5" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="CU5" s="17" t="s">
+      <c r="CU5" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="CV5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CW5" s="17" t="s">
+      <c r="CV5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CW5" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="CX5" s="17" t="s">
+      <c r="CX5" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="CY5" s="19" t="s">
+      <c r="CY5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="CZ5" s="19" t="s">
+      <c r="CZ5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DA5" s="19" t="s">
+      <c r="DA5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DB5" s="19" t="s">
+      <c r="DB5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DC5" s="19" t="s">
+      <c r="DC5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DD5" s="19" t="s">
+      <c r="DD5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DE5" s="19" t="s">
+      <c r="DE5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DF5" s="19" t="s">
+      <c r="DF5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DG5" s="19" t="s">
+      <c r="DG5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DH5" s="19" t="s">
+      <c r="DH5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DI5" s="19" t="s">
+      <c r="DI5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DJ5" s="19" t="s">
+      <c r="DJ5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DK5" s="19" t="s">
+      <c r="DK5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DL5" s="19" t="s">
+      <c r="DL5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DM5" s="19" t="s">
+      <c r="DM5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DN5" s="19" t="s">
+      <c r="DN5" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="DO5" s="19" t="s">
+      <c r="DO5" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="DP5" s="23" t="s">
+      <c r="DP5" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="DQ5" s="23" t="s">
+      <c r="DQ5" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="DR5" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="DS5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="DT5" s="23" t="s">
+      <c r="DR5" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="DS5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="DT5" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="DU5" s="23" t="s">
+      <c r="DU5" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="DV5" s="23" t="s">
+      <c r="DV5" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="DW5" s="23" t="s">
+      <c r="DW5" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="DX5" s="23" t="s">
+      <c r="DX5" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="DY5" s="23" t="s">
+      <c r="DY5" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="DZ5" s="20" t="s">
+      <c r="DZ5" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="EA5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="EB5" s="23" t="s">
+      <c r="EA5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="EB5" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="EC5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="ED5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EE5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EF5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EG5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EH5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EI5" s="23" t="s">
+      <c r="EC5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="ED5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EE5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EF5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EG5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EH5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EI5" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="EJ5" s="23" t="s">
+      <c r="EJ5" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="EK5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="EL5" s="29" t="s">
-        <v>677</v>
-      </c>
-      <c r="EM5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="EN5" s="12" t="s">
+      <c r="EK5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="EL5" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="EM5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="EN5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="EO5" s="12" t="s">
+      <c r="EO5" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="EP5" s="12" t="s">
+      <c r="EP5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="EQ5" s="12" t="s">
+      <c r="EQ5" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="ER5" s="12" t="s">
+      <c r="ER5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="ES5" s="12" t="s">
+      <c r="ES5" s="11" t="s">
         <v>104</v>
       </c>
       <c r="ET5" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="EU5" s="12" t="s">
+      <c r="EU5" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="EV5" s="12" t="s">
+      <c r="EV5" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="EW5" s="12" t="s">
+      <c r="EW5" s="11" t="s">
         <v>556</v>
       </c>
       <c r="EX5" s="6" t="s">
@@ -8244,40 +8292,40 @@
       <c r="EY5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="EZ5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="FA5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="FB5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FC5" s="12" t="s">
+      <c r="EZ5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="FA5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="FB5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FC5" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="FD5" s="12" t="s">
+      <c r="FD5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="FE5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FF5" s="12" t="s">
+      <c r="FE5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FF5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="FG5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FH5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FI5" s="12" t="s">
+      <c r="FG5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FH5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FI5" s="11" t="s">
         <v>79</v>
       </c>
       <c r="FJ5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="FK5" s="13" t="s">
+      <c r="FK5" s="12" t="s">
         <v>122</v>
       </c>
       <c r="FL5" s="6" t="s">
@@ -8473,60 +8521,60 @@
         <v>202</v>
       </c>
       <c r="HX5" s="6" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="HY5" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="HZ5" s="30" t="s">
-        <v>682</v>
+      <c r="HZ5" s="29" t="s">
+        <v>692</v>
       </c>
       <c r="IA5" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="IB5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="IC5" s="15" t="s">
+      <c r="IB5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="IC5" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="ID5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="IE5" s="14" t="s">
+      <c r="ID5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="IE5" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="IF5" s="14" t="s">
+      <c r="IF5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="IG5" s="14" t="s">
+      <c r="IG5" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="IH5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="II5" s="14" t="s">
+      <c r="IH5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="II5" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="IJ5" s="14" t="s">
+      <c r="IJ5" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="IK5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="IL5" s="14" t="s">
+      <c r="IK5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="IL5" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="IM5" s="14" t="s">
+      <c r="IM5" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="IN5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="IO5" s="14" t="s">
+      <c r="IN5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="IO5" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="IP5" s="14" t="s">
+      <c r="IP5" s="13" t="s">
         <v>217</v>
       </c>
       <c r="IQ5" s="6" t="s">
@@ -8541,7 +8589,7 @@
       <c r="IT5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="IU5" s="15" t="s">
+      <c r="IU5" s="14" t="s">
         <v>236</v>
       </c>
       <c r="IV5" s="6" t="s">
@@ -8584,7 +8632,7 @@
         <v>261</v>
       </c>
       <c r="JI5" s="6" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="JJ5" s="6" t="s">
         <v>205</v>
@@ -8595,50 +8643,50 @@
       <c r="JL5" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="JM5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JN5" s="15" t="s">
+      <c r="JM5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JN5" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="JO5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="JP5" s="14" t="s">
+      <c r="JO5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="JP5" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="JQ5" s="14" t="s">
+      <c r="JQ5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="JR5" s="14" t="s">
+      <c r="JR5" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="JS5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JT5" s="14" t="s">
+      <c r="JS5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JT5" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="JU5" s="14" t="s">
+      <c r="JU5" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="JV5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="JW5" s="14" t="s">
+      <c r="JV5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="JW5" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="JX5" s="14" t="s">
+      <c r="JX5" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="JY5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JZ5" s="14" t="s">
+      <c r="JY5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JZ5" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="KA5" s="14" t="s">
-        <v>62</v>
+      <c r="KA5" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="KB5" s="6" t="s">
         <v>79</v>
@@ -8652,7 +8700,7 @@
       <c r="KE5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="KF5" s="15" t="s">
+      <c r="KF5" s="14" t="s">
         <v>236</v>
       </c>
       <c r="KG5" s="6" t="s">
@@ -8694,327 +8742,327 @@
       <c r="KS5" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="KT5" s="21" t="s">
+      <c r="KT5" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="KU5" s="21" t="s">
+      <c r="KU5" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="KV5" s="23" t="s">
+      <c r="KV5" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="KW5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="KX5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="KY5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="KZ5" s="23" t="s">
+      <c r="KW5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="KX5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="KY5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="KZ5" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="LA5" s="23" t="s">
+      <c r="LA5" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="LB5" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="LC5" s="23" t="s">
+      <c r="LB5" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="LC5" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="LD5" s="23" t="s">
+      <c r="LD5" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="LE5" s="23" t="s">
+      <c r="LE5" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="LF5" s="23" t="s">
+      <c r="LF5" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="LG5" s="23" t="s">
+      <c r="LG5" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="LH5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LI5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LJ5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LK5" s="23" t="s">
+      <c r="LH5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LI5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LJ5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LK5" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="LL5" s="32" t="s">
-        <v>692</v>
-      </c>
-      <c r="LM5" s="23" t="s">
+      <c r="LL5" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="LM5" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="LN5" s="23" t="s">
+      <c r="LN5" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="LO5" s="23" t="s">
+      <c r="LO5" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="LP5" s="23" t="s">
+      <c r="LP5" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="LQ5" s="23" t="s">
+      <c r="LQ5" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="LR5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LS5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LT5" s="24" t="s">
+      <c r="LR5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LS5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LT5" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="LU5" s="24" t="s">
+      <c r="LU5" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="LV5" s="24" t="s">
+      <c r="LV5" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="LW5" s="25" t="s">
+      <c r="LW5" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="LX5" s="25" t="s">
+      <c r="LX5" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="LY5" s="25" t="s">
+      <c r="LY5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="LZ5" s="26" t="s">
+      <c r="LZ5" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="MA5" s="25" t="s">
+      <c r="MA5" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="MB5" s="25" t="s">
+      <c r="MB5" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="MC5" s="24" t="s">
+      <c r="MC5" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="MD5" s="24" t="s">
+      <c r="MD5" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="ME5" s="24" t="s">
+      <c r="ME5" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="MF5" s="25" t="s">
+      <c r="MF5" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="MG5" s="25" t="s">
+      <c r="MG5" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="MH5" s="27" t="s">
+      <c r="MH5" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="MI5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="MJ5" s="25" t="s">
+      <c r="MI5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="MJ5" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="MK5" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="ML5" s="25" t="s">
+      <c r="MK5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="ML5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="MM5" s="27" t="s">
+      <c r="MM5" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="MN5" s="26" t="s">
+      <c r="MN5" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="MO5" s="27" t="s">
+      <c r="MO5" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="MP5" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MQ5" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MR5" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MS5" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MT5" s="23" t="s">
+      <c r="MP5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MQ5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MR5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MS5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MT5" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="MU5" s="23" t="s">
+      <c r="MU5" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="MV5" s="23" t="s">
+      <c r="MV5" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="MW5" s="23" t="s">
+      <c r="MW5" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="MX5" s="23" t="s">
+      <c r="MX5" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="MY5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="MZ5" s="23" t="s">
+      <c r="MY5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="MZ5" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="NA5" s="23" t="s">
+      <c r="NA5" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="NB5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NC5" s="23" t="s">
+      <c r="NB5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NC5" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="ND5" s="23" t="s">
+      <c r="ND5" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="NE5" s="23" t="s">
+      <c r="NE5" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="NF5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NG5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NH5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NI5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="NJ5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NK5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="NL5" s="23" t="s">
+      <c r="NF5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NG5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NH5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NI5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="NJ5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NK5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="NL5" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="NM5" s="23" t="s">
+      <c r="NM5" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="NN5" s="23" t="s">
+      <c r="NN5" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="NO5" s="23" t="s">
+      <c r="NO5" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="NP5" s="23" t="s">
+      <c r="NP5" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="NQ5" s="23" t="s">
+      <c r="NQ5" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="NR5" s="23" t="s">
+      <c r="NR5" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="NS5" s="23" t="s">
+      <c r="NS5" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="NT5" s="23" t="s">
+      <c r="NT5" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="NU5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NV5" s="23" t="s">
+      <c r="NU5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NV5" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="NW5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NX5" s="23" t="s">
+      <c r="NW5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NX5" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="NY5" s="23" t="s">
+      <c r="NY5" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="NZ5" s="23" t="s">
+      <c r="NZ5" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="OA5" s="23" t="s">
+      <c r="OA5" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="OB5" s="23" t="s">
+      <c r="OB5" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="OC5" s="23" t="s">
+      <c r="OC5" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="OD5" s="23" t="s">
+      <c r="OD5" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="OE5" s="23" t="s">
+      <c r="OE5" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="OF5" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="OG5" s="23" t="s">
+      <c r="OF5" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="OG5" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="OH5" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="OI5" s="18" t="s">
+      <c r="OH5" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="OI5" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="OJ5" s="18" t="s">
+      <c r="OJ5" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="OK5" s="23" t="s">
+      <c r="OK5" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="OL5" s="23" t="s">
+      <c r="OL5" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="OM5" s="23" t="s">
+      <c r="OM5" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="ON5" s="23" t="s">
+      <c r="ON5" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="OO5" s="23" t="s">
+      <c r="OO5" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="OP5" s="23" t="s">
+      <c r="OP5" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="OQ5" s="23" t="s">
+      <c r="OQ5" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="OR5" s="23" t="s">
+      <c r="OR5" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="OS5" s="23" t="s">
+      <c r="OS5" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="OT5" s="23" t="s">
+      <c r="OT5" s="22" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:410" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:410" s="22" customFormat="1" ht="27" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>418</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -9024,34 +9072,34 @@
         <v>62</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>654</v>
+        <v>573</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>654</v>
+        <v>573</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>655</v>
+        <v>574</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>656</v>
+        <v>575</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>657</v>
+        <v>576</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>658</v>
+        <v>577</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>659</v>
+        <v>578</v>
       </c>
       <c r="N6" s="4">
-        <v>9381479350</v>
+        <v>9381979350</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>71</v>
@@ -9075,22 +9123,22 @@
         <v>6</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>660</v>
+        <v>579</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>661</v>
+        <v>580</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>660</v>
+        <v>579</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>661</v>
+        <v>580</v>
       </c>
       <c r="Z6" s="6" t="s">
         <v>72</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>662</v>
+        <v>581</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>25</v>
@@ -9114,10 +9162,10 @@
         <v>37</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>663</v>
+        <v>582</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>664</v>
+        <v>583</v>
       </c>
       <c r="AK6" s="6" t="s">
         <v>535</v>
@@ -9126,19 +9174,19 @@
         <v>42</v>
       </c>
       <c r="AM6" s="7" t="s">
-        <v>665</v>
+        <v>584</v>
       </c>
       <c r="AN6" s="8" t="s">
         <v>191</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>660</v>
+        <v>579</v>
       </c>
       <c r="AP6" s="6" t="s">
-        <v>666</v>
+        <v>585</v>
       </c>
       <c r="AQ6" s="6" t="s">
-        <v>667</v>
+        <v>586</v>
       </c>
       <c r="AR6" s="6" t="s">
         <v>536</v>
@@ -9147,7 +9195,7 @@
         <v>55</v>
       </c>
       <c r="AT6" s="7" t="s">
-        <v>668</v>
+        <v>587</v>
       </c>
       <c r="AU6" s="6" t="s">
         <v>70</v>
@@ -9161,29 +9209,29 @@
       <c r="AX6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AY6" s="23" t="s">
+      <c r="AY6" s="22" t="s">
         <v>79</v>
       </c>
       <c r="AZ6" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="BA6" s="33" t="s">
-        <v>670</v>
-      </c>
-      <c r="BB6" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC6" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="BD6" s="33" t="s">
-        <v>661</v>
-      </c>
-      <c r="BE6" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF6" s="33" t="s">
-        <v>669</v>
+        <v>588</v>
+      </c>
+      <c r="BA6" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="BB6" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC6" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="BD6" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="BE6" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF6" s="32" t="s">
+        <v>588</v>
       </c>
       <c r="BG6" s="6" t="s">
         <v>58</v>
@@ -9222,7 +9270,7 @@
         <v>79</v>
       </c>
       <c r="BS6" s="7" t="s">
-        <v>671</v>
+        <v>590</v>
       </c>
       <c r="BT6" s="6" t="s">
         <v>87</v>
@@ -9269,205 +9317,205 @@
       <c r="CH6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="CI6" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="CJ6" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK6" s="18" t="s">
+      <c r="CI6" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="CJ6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK6" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="CL6" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM6" s="17" t="s">
+      <c r="CL6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM6" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="CN6" s="17" t="s">
+      <c r="CN6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="CO6" s="17" t="s">
+      <c r="CO6" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="CP6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CQ6" s="17" t="s">
+      <c r="CP6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CQ6" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="CR6" s="17" t="s">
+      <c r="CR6" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="CS6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CT6" s="17" t="s">
+      <c r="CS6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CT6" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="CU6" s="17" t="s">
+      <c r="CU6" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="CV6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="CW6" s="17" t="s">
+      <c r="CV6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CW6" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="CX6" s="17" t="s">
+      <c r="CX6" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="CY6" s="19" t="s">
+      <c r="CY6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="CZ6" s="19" t="s">
+      <c r="CZ6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DA6" s="19" t="s">
+      <c r="DA6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DB6" s="19" t="s">
+      <c r="DB6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DC6" s="19" t="s">
+      <c r="DC6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DD6" s="19" t="s">
+      <c r="DD6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DE6" s="19" t="s">
+      <c r="DE6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DF6" s="19" t="s">
+      <c r="DF6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DG6" s="19" t="s">
+      <c r="DG6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DH6" s="19" t="s">
+      <c r="DH6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DI6" s="19" t="s">
+      <c r="DI6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DJ6" s="19" t="s">
+      <c r="DJ6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DK6" s="19" t="s">
+      <c r="DK6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DL6" s="19" t="s">
+      <c r="DL6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DM6" s="19" t="s">
+      <c r="DM6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="DN6" s="19" t="s">
+      <c r="DN6" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="DO6" s="19" t="s">
+      <c r="DO6" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="DP6" s="23" t="s">
+      <c r="DP6" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="DQ6" s="23" t="s">
+      <c r="DQ6" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="DR6" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="DS6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="DT6" s="23" t="s">
+      <c r="DR6" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="DS6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="DT6" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="DU6" s="23" t="s">
+      <c r="DU6" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="DV6" s="23" t="s">
+      <c r="DV6" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="DW6" s="23" t="s">
+      <c r="DW6" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="DX6" s="23" t="s">
+      <c r="DX6" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="DY6" s="23" t="s">
+      <c r="DY6" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="DZ6" s="20" t="s">
+      <c r="DZ6" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="EA6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="EB6" s="23" t="s">
+      <c r="EA6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="EB6" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="EC6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="ED6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EE6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EF6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EG6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EH6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="EI6" s="23" t="s">
+      <c r="EC6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="ED6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EE6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EF6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EG6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EH6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="EI6" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="EJ6" s="23" t="s">
+      <c r="EJ6" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="EK6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="EL6" s="29" t="s">
-        <v>678</v>
-      </c>
-      <c r="EM6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="EN6" s="12" t="s">
+      <c r="EK6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="EL6" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="EM6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="EN6" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="EO6" s="12" t="s">
+      <c r="EO6" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="EP6" s="12" t="s">
+      <c r="EP6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="EQ6" s="12" t="s">
+      <c r="EQ6" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="ER6" s="12" t="s">
+      <c r="ER6" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="ES6" s="12" t="s">
+      <c r="ES6" s="11" t="s">
         <v>104</v>
       </c>
       <c r="ET6" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="EU6" s="12" t="s">
+      <c r="EU6" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="EV6" s="12" t="s">
+      <c r="EV6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="EW6" s="12" t="s">
+      <c r="EW6" s="11" t="s">
         <v>556</v>
       </c>
       <c r="EX6" s="6" t="s">
@@ -9476,40 +9524,40 @@
       <c r="EY6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="EZ6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="FA6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="FB6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FC6" s="12" t="s">
+      <c r="EZ6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="FA6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="FB6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FC6" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="FD6" s="12" t="s">
+      <c r="FD6" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="FE6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FF6" s="12" t="s">
+      <c r="FE6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FF6" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="FG6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FH6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="FI6" s="12" t="s">
+      <c r="FG6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FH6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="FI6" s="11" t="s">
         <v>79</v>
       </c>
       <c r="FJ6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="FK6" s="13" t="s">
+      <c r="FK6" s="12" t="s">
         <v>122</v>
       </c>
       <c r="FL6" s="6" t="s">
@@ -9705,60 +9753,60 @@
         <v>202</v>
       </c>
       <c r="HX6" s="6" t="s">
-        <v>672</v>
+        <v>592</v>
       </c>
       <c r="HY6" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="HZ6" s="30" t="s">
-        <v>683</v>
+      <c r="HZ6" s="29" t="s">
+        <v>693</v>
       </c>
       <c r="IA6" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="IB6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="IC6" s="15" t="s">
+      <c r="IB6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="IC6" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="ID6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="IE6" s="14" t="s">
+      <c r="ID6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="IE6" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="IF6" s="14" t="s">
+      <c r="IF6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="IG6" s="14" t="s">
+      <c r="IG6" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="IH6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="II6" s="14" t="s">
+      <c r="IH6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="II6" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="IJ6" s="14" t="s">
+      <c r="IJ6" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="IK6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="IL6" s="14" t="s">
+      <c r="IK6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="IL6" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="IM6" s="14" t="s">
+      <c r="IM6" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="IN6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="IO6" s="14" t="s">
+      <c r="IN6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="IO6" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="IP6" s="14" t="s">
+      <c r="IP6" s="13" t="s">
         <v>217</v>
       </c>
       <c r="IQ6" s="6" t="s">
@@ -9773,7 +9821,7 @@
       <c r="IT6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="IU6" s="15" t="s">
+      <c r="IU6" s="14" t="s">
         <v>236</v>
       </c>
       <c r="IV6" s="6" t="s">
@@ -9816,7 +9864,7 @@
         <v>261</v>
       </c>
       <c r="JI6" s="6" t="s">
-        <v>673</v>
+        <v>593</v>
       </c>
       <c r="JJ6" s="6" t="s">
         <v>205</v>
@@ -9827,50 +9875,50 @@
       <c r="JL6" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="JM6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JN6" s="15" t="s">
+      <c r="JM6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JN6" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="JO6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="JP6" s="14" t="s">
+      <c r="JO6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="JP6" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="JQ6" s="14" t="s">
+      <c r="JQ6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="JR6" s="14" t="s">
+      <c r="JR6" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="JS6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JT6" s="14" t="s">
+      <c r="JS6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JT6" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="JU6" s="14" t="s">
+      <c r="JU6" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="JV6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="JW6" s="14" t="s">
+      <c r="JV6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="JW6" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="JX6" s="14" t="s">
+      <c r="JX6" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="JY6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="JZ6" s="14" t="s">
+      <c r="JY6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="JZ6" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="KA6" s="14" t="s">
-        <v>62</v>
+      <c r="KA6" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="KB6" s="6" t="s">
         <v>79</v>
@@ -9884,7 +9932,7 @@
       <c r="KE6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="KF6" s="15" t="s">
+      <c r="KF6" s="14" t="s">
         <v>236</v>
       </c>
       <c r="KG6" s="6" t="s">
@@ -9926,319 +9974,319 @@
       <c r="KS6" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="KT6" s="21" t="s">
+      <c r="KT6" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="KU6" s="21" t="s">
+      <c r="KU6" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="KV6" s="23" t="s">
+      <c r="KV6" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="KW6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="KX6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="KY6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="KZ6" s="23" t="s">
+      <c r="KW6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="KX6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="KY6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="KZ6" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="LA6" s="23" t="s">
+      <c r="LA6" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="LB6" s="31" t="s">
-        <v>688</v>
-      </c>
-      <c r="LC6" s="23" t="s">
+      <c r="LB6" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="LC6" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="LD6" s="23" t="s">
+      <c r="LD6" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="LE6" s="23" t="s">
+      <c r="LE6" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="LF6" s="23" t="s">
+      <c r="LF6" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="LG6" s="23" t="s">
+      <c r="LG6" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="LH6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LI6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LJ6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LK6" s="23" t="s">
+      <c r="LH6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LI6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LJ6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LK6" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="LL6" s="32" t="s">
-        <v>693</v>
-      </c>
-      <c r="LM6" s="23" t="s">
+      <c r="LL6" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="LM6" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="LN6" s="23" t="s">
+      <c r="LN6" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="LO6" s="23" t="s">
+      <c r="LO6" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="LP6" s="23" t="s">
+      <c r="LP6" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="LQ6" s="23" t="s">
+      <c r="LQ6" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="LR6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LS6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="LT6" s="24" t="s">
+      <c r="LR6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LS6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="LT6" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="LU6" s="24" t="s">
+      <c r="LU6" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="LV6" s="24" t="s">
+      <c r="LV6" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="LW6" s="25" t="s">
+      <c r="LW6" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="LX6" s="25" t="s">
+      <c r="LX6" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="LY6" s="25" t="s">
+      <c r="LY6" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="LZ6" s="26" t="s">
+      <c r="LZ6" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="MA6" s="25" t="s">
+      <c r="MA6" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="MB6" s="25" t="s">
+      <c r="MB6" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="MC6" s="24" t="s">
+      <c r="MC6" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="MD6" s="24" t="s">
+      <c r="MD6" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="ME6" s="24" t="s">
+      <c r="ME6" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="MF6" s="25" t="s">
+      <c r="MF6" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="MG6" s="25" t="s">
+      <c r="MG6" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="MH6" s="27" t="s">
+      <c r="MH6" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="MI6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="MJ6" s="25" t="s">
+      <c r="MI6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="MJ6" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="MK6" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="ML6" s="25" t="s">
+      <c r="MK6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="ML6" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="MM6" s="27" t="s">
+      <c r="MM6" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="MN6" s="26" t="s">
+      <c r="MN6" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="MO6" s="27" t="s">
+      <c r="MO6" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="MP6" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MQ6" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MR6" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MS6" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="MT6" s="23" t="s">
+      <c r="MP6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MQ6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MR6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MS6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="MT6" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="MU6" s="23" t="s">
+      <c r="MU6" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="MV6" s="23" t="s">
+      <c r="MV6" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="MW6" s="23" t="s">
+      <c r="MW6" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="MX6" s="23" t="s">
+      <c r="MX6" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="MY6" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="MZ6" s="23" t="s">
+      <c r="MY6" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="MZ6" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="NA6" s="23" t="s">
+      <c r="NA6" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="NB6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NC6" s="23" t="s">
+      <c r="NB6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NC6" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="ND6" s="23" t="s">
+      <c r="ND6" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="NE6" s="23" t="s">
+      <c r="NE6" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="NF6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NG6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NH6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NI6" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="NJ6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="NK6" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="NL6" s="23" t="s">
+      <c r="NF6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NG6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NH6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NI6" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="NJ6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="NK6" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="NL6" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="NM6" s="23" t="s">
+      <c r="NM6" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="NN6" s="23" t="s">
+      <c r="NN6" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="NO6" s="23" t="s">
+      <c r="NO6" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="NP6" s="23" t="s">
+      <c r="NP6" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="NQ6" s="23" t="s">
+      <c r="NQ6" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="NR6" s="23" t="s">
+      <c r="NR6" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="NS6" s="23" t="s">
+      <c r="NS6" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="NT6" s="23" t="s">
+      <c r="NT6" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="NU6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NV6" s="23" t="s">
+      <c r="NU6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NV6" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="NW6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="NX6" s="23" t="s">
+      <c r="NW6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="NX6" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="NY6" s="23" t="s">
+      <c r="NY6" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="NZ6" s="23" t="s">
+      <c r="NZ6" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="OA6" s="23" t="s">
+      <c r="OA6" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="OB6" s="23" t="s">
+      <c r="OB6" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="OC6" s="23" t="s">
+      <c r="OC6" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="OD6" s="23" t="s">
+      <c r="OD6" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="OE6" s="23" t="s">
+      <c r="OE6" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="OF6" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="OG6" s="23" t="s">
+      <c r="OF6" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="OG6" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="OH6" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="OI6" s="18" t="s">
+      <c r="OH6" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="OI6" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="OJ6" s="18" t="s">
+      <c r="OJ6" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="OK6" s="23" t="s">
+      <c r="OK6" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="OL6" s="23" t="s">
+      <c r="OL6" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="OM6" s="23" t="s">
+      <c r="OM6" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="ON6" s="23" t="s">
+      <c r="ON6" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="OO6" s="23" t="s">
+      <c r="OO6" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="OP6" s="23" t="s">
+      <c r="OP6" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="OQ6" s="23" t="s">
+      <c r="OQ6" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="OR6" s="23" t="s">
+      <c r="OR6" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="OS6" s="23" t="s">
+      <c r="OS6" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="OT6" s="23" t="s">
+      <c r="OT6" s="22" t="s">
         <v>555</v>
       </c>
     </row>
@@ -10273,4 +10321,200 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>